--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Renewable Diesel</t>
   </si>
@@ -151,11 +156,23 @@
   <si>
     <t>ICtPSFfL Incremental Cost to Produce Substitute Fuel for LCFS</t>
   </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Cost ($/BTU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3747,17 +3764,20 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
@@ -4906,6 +4926,453 @@
         <v>0</v>
       </c>
       <c r="AK8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5168,13 +5635,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405A8DC2-4F35-47C2-B963-A7DBD6358541}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E77FE4F-0857-45ED-A967-D5A7B070689C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D062297-2243-425B-896F-73F85943CD5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{650FB9E4-B013-4D9C-BE48-FC74BC763C65}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC078FC-8434-4E9B-A0CA-50EDBDFBD3AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E8946D-06B5-4F7D-AB41-19CA6F7451C8}"/>
 </file>